--- a/wheel_factory_product_backlog.xlsx
+++ b/wheel_factory_product_backlog.xlsx
@@ -1,89 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\npankajkumar\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DA6A55-C5C0-4F32-ABE6-E90E11DFF64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>AS A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>I WANT</t>
   </si>
   <si>
-    <t>FOR</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
-    <t>WORKER</t>
-  </si>
-  <si>
-    <t>a statistics button for each wheel</t>
-  </si>
-  <si>
-    <t>to see the full inventory with the status of each wheel</t>
-  </si>
-  <si>
-    <t>to see the process and execution time for every step</t>
-  </si>
-  <si>
-    <t>to identify the wheel (year, make, model) and enter the type of damage</t>
-  </si>
-  <si>
-    <t>to upload a picture of the wheel as a proof of its original state</t>
-  </si>
-  <si>
-    <t>to add a note for sandblasting &amp; soldering and the amount required</t>
-  </si>
-  <si>
-    <t>to add a painting note and select the color and type of paint</t>
-  </si>
-  <si>
-    <t>to add a packaging note, final inspection rating, and upload proof of quality assurance</t>
-  </si>
-  <si>
-    <t>so that I can see how many stages each wheel has passed</t>
-  </si>
-  <si>
-    <t>so that I can monitor which wheels are in which stage of remanufacturing</t>
-  </si>
-  <si>
-    <t>so that I can track efficiency and identify bottlenecks</t>
-  </si>
-  <si>
     <t>so that the wheel can be processed correctly in the next steps</t>
   </si>
   <si>
-    <t>so that there is a record of the wheel's condition before repairs</t>
-  </si>
-  <si>
-    <t>so that I can record the necessary information for this step</t>
-  </si>
-  <si>
-    <t>so that the wheel is painted correctly according to specifications</t>
-  </si>
-  <si>
-    <t>so that the wheel is properly inspected and packed for delivery</t>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>AS A/AN</t>
+  </si>
+  <si>
+    <t>SO that</t>
+  </si>
+  <si>
+    <t>I want to view the orders</t>
+  </si>
+  <si>
+    <t>so that I can see how many orders are in progress,completed.</t>
+  </si>
+  <si>
+    <t>Worker1</t>
+  </si>
+  <si>
+    <t>so that I can identify the wheel order (year, make, model) and  damage  and submit to process for further step.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to send the order details from client and send to the worker.</t>
+  </si>
+  <si>
+    <t>I want to select the order and view details of order at eachstage.</t>
+  </si>
+  <si>
+    <t>so that I can estimate the time of order delivery.</t>
+  </si>
+  <si>
+    <t>Worker2</t>
+  </si>
+  <si>
+    <t>Worker3</t>
+  </si>
+  <si>
+    <t>Worker4</t>
+  </si>
+  <si>
+    <t>so that I can check the pending orders and perform the process</t>
+  </si>
+  <si>
+    <t>so that I can check and add  sandblasting  level &amp; soldering amount required and notes to process it to further step</t>
+  </si>
+  <si>
+    <t>so that I can check the details and wheel is painted correctly according to specifications like paint colour and type and add notes</t>
+  </si>
+  <si>
+    <t>so that I can check and  add a packaging note, final inspection rating, and upload proof of quality assurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> so that I can check the pending orders and perform the Inspection on order</t>
+  </si>
+  <si>
+    <t>I want to  check the order details in previous stages  on orderid selection</t>
+  </si>
+  <si>
+    <t>I want to check and  view the orders</t>
+  </si>
+  <si>
+    <t>I want to check  and view the orders</t>
+  </si>
+  <si>
+    <t>I want to check and view the orders</t>
+  </si>
+  <si>
+    <t>I want to check the  order details of the previous stages on selection of orderid</t>
+  </si>
+  <si>
+    <t>I want to check the orderdetails on selection of orderid in previous stages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to check the orders from manager </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,15 +124,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,42 +147,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +243,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,6 +277,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,9 +312,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,113 +488,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="80.453125" customWidth="1"/>
+    <col min="3" max="3" width="106.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>